--- a/week 4/Book1.xlsx
+++ b/week 4/Book1.xlsx
@@ -13089,7 +13089,7 @@
         <v>8.4729805296679901E-7</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:L67" si="3">I4*D4^2</f>
+        <f t="shared" ref="K4:K67" si="3">I4*D4^2</f>
         <v>1.743377167265968E-8</v>
       </c>
       <c r="L4" s="1">
@@ -15265,7 +15265,7 @@
         <v>7.1893652543546099E-3</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" ref="K68:L131" si="8">I68*D68^2</f>
+        <f t="shared" ref="K68:K131" si="8">I68*D68^2</f>
         <v>7.4881423089424443E-3</v>
       </c>
       <c r="L68" s="1">
@@ -17441,7 +17441,7 @@
         <v>1.33647877407325E-3</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" ref="K132:L195" si="13">I132*D132^2</f>
+        <f t="shared" ref="K132:K195" si="13">I132*D132^2</f>
         <v>3.7914318793220205E-4</v>
       </c>
       <c r="L132" s="1">
@@ -19617,7 +19617,7 @@
         <v>4.9240722839625898E-4</v>
       </c>
       <c r="K196" s="1">
-        <f t="shared" ref="K196:L259" si="18">I196*D196^2</f>
+        <f t="shared" ref="K196:K259" si="18">I196*D196^2</f>
         <v>5.4254912217471725E-5</v>
       </c>
       <c r="L196" s="1">
@@ -21793,7 +21793,7 @@
         <v>2.4162207653964001E-4</v>
       </c>
       <c r="K260" s="1">
-        <f t="shared" ref="K260:L302" si="23">I260*D260^2</f>
+        <f t="shared" ref="K260:K302" si="23">I260*D260^2</f>
         <v>1.4325358436519969E-5</v>
       </c>
       <c r="L260" s="1">
